--- a/processed_data/Weekly_distribution/Koman_CT_weekly_share.xlsx
+++ b/processed_data/Weekly_distribution/Koman_CT_weekly_share.xlsx
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>506.426</v>
+        <v>101.285</v>
       </c>
       <c r="E2">
         <v>80.577</v>
       </c>
       <c r="F2">
-        <v>0.159</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>506.426</v>
+        <v>101.285</v>
       </c>
       <c r="E3">
         <v>108.508</v>
       </c>
       <c r="F3">
-        <v>0.214</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>506.426</v>
+        <v>101.285</v>
       </c>
       <c r="E4">
         <v>117.892</v>
       </c>
       <c r="F4">
-        <v>0.233</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>506.426</v>
+        <v>101.285</v>
       </c>
       <c r="E5">
         <v>123.333</v>
       </c>
       <c r="F5">
-        <v>0.244</v>
+        <v>1.218</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>506.426</v>
+        <v>101.285</v>
       </c>
       <c r="E6">
         <v>76.114</v>
       </c>
       <c r="F6">
-        <v>0.15</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>477.782</v>
+        <v>95.556</v>
       </c>
       <c r="E7">
         <v>62.487</v>
       </c>
       <c r="F7">
-        <v>0.131</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>477.782</v>
+        <v>95.556</v>
       </c>
       <c r="E8">
         <v>101.745</v>
       </c>
       <c r="F8">
-        <v>0.213</v>
+        <v>1.065</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>477.782</v>
+        <v>95.556</v>
       </c>
       <c r="E9">
         <v>112.372</v>
       </c>
       <c r="F9">
-        <v>0.235</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>477.782</v>
+        <v>95.556</v>
       </c>
       <c r="E10">
         <v>83.67400000000001</v>
       </c>
       <c r="F10">
-        <v>0.175</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>477.782</v>
+        <v>95.556</v>
       </c>
       <c r="E11">
         <v>117.505</v>
       </c>
       <c r="F11">
-        <v>0.246</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>458.454</v>
+        <v>114.613</v>
       </c>
       <c r="E12">
         <v>120.932</v>
       </c>
       <c r="F12">
-        <v>0.264</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>458.454</v>
+        <v>114.613</v>
       </c>
       <c r="E13">
         <v>131.62</v>
       </c>
       <c r="F13">
-        <v>0.287</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>458.454</v>
+        <v>114.613</v>
       </c>
       <c r="E14">
         <v>115.629</v>
       </c>
       <c r="F14">
-        <v>0.252</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>458.454</v>
+        <v>114.613</v>
       </c>
       <c r="E15">
         <v>90.273</v>
       </c>
       <c r="F15">
-        <v>0.197</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>468.815</v>
+        <v>117.204</v>
       </c>
       <c r="E16">
         <v>110.83</v>
       </c>
       <c r="F16">
-        <v>0.236</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>468.815</v>
+        <v>117.204</v>
       </c>
       <c r="E17">
         <v>136.798</v>
       </c>
       <c r="F17">
-        <v>0.292</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>468.815</v>
+        <v>117.204</v>
       </c>
       <c r="E18">
         <v>129.097</v>
       </c>
       <c r="F18">
-        <v>0.275</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>468.815</v>
+        <v>117.204</v>
       </c>
       <c r="E19">
         <v>92.09</v>
       </c>
       <c r="F19">
-        <v>0.196</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>407.503</v>
+        <v>81.501</v>
       </c>
       <c r="E20">
         <v>80.432</v>
       </c>
       <c r="F20">
-        <v>0.197</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>407.503</v>
+        <v>81.501</v>
       </c>
       <c r="E21">
         <v>95.19799999999999</v>
       </c>
       <c r="F21">
-        <v>0.234</v>
+        <v>1.168</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>407.503</v>
+        <v>81.501</v>
       </c>
       <c r="E22">
         <v>85.09</v>
       </c>
       <c r="F22">
-        <v>0.209</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>407.503</v>
+        <v>81.501</v>
       </c>
       <c r="E23">
         <v>72.093</v>
       </c>
       <c r="F23">
-        <v>0.177</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>407.503</v>
+        <v>81.501</v>
       </c>
       <c r="E24">
         <v>74.691</v>
       </c>
       <c r="F24">
-        <v>0.183</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>300.564</v>
+        <v>75.14100000000001</v>
       </c>
       <c r="E25">
         <v>107.064</v>
       </c>
       <c r="F25">
-        <v>0.356</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>300.564</v>
+        <v>75.14100000000001</v>
       </c>
       <c r="E26">
         <v>79.866</v>
       </c>
       <c r="F26">
-        <v>0.266</v>
+        <v>1.063</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>300.564</v>
+        <v>75.14100000000001</v>
       </c>
       <c r="E27">
         <v>57.356</v>
       </c>
       <c r="F27">
-        <v>0.191</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>300.564</v>
+        <v>75.14100000000001</v>
       </c>
       <c r="E28">
         <v>56.278</v>
       </c>
       <c r="F28">
-        <v>0.187</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>119.568</v>
+        <v>29.892</v>
       </c>
       <c r="E29">
         <v>38.868</v>
       </c>
       <c r="F29">
-        <v>0.325</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>119.568</v>
+        <v>29.892</v>
       </c>
       <c r="E30">
         <v>30.404</v>
       </c>
       <c r="F30">
-        <v>0.254</v>
+        <v>1.017</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>119.568</v>
+        <v>29.892</v>
       </c>
       <c r="E31">
         <v>27.217</v>
       </c>
       <c r="F31">
-        <v>0.228</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>119.568</v>
+        <v>29.892</v>
       </c>
       <c r="E32">
         <v>23.079</v>
       </c>
       <c r="F32">
-        <v>0.193</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>31</v>
       </c>
       <c r="D33">
-        <v>151.85</v>
+        <v>30.37</v>
       </c>
       <c r="E33">
         <v>27.838</v>
       </c>
       <c r="F33">
-        <v>0.183</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>151.85</v>
+        <v>30.37</v>
       </c>
       <c r="E34">
         <v>35.649</v>
       </c>
       <c r="F34">
-        <v>0.235</v>
+        <v>1.174</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>151.85</v>
+        <v>30.37</v>
       </c>
       <c r="E35">
         <v>38.279</v>
       </c>
       <c r="F35">
-        <v>0.252</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>151.85</v>
+        <v>30.37</v>
       </c>
       <c r="E36">
         <v>26.628</v>
       </c>
       <c r="F36">
-        <v>0.175</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>151.85</v>
+        <v>30.37</v>
       </c>
       <c r="E37">
         <v>23.457</v>
       </c>
       <c r="F37">
-        <v>0.154</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>178.73</v>
+        <v>44.683</v>
       </c>
       <c r="E38">
         <v>20.85</v>
       </c>
       <c r="F38">
-        <v>0.117</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>178.73</v>
+        <v>44.683</v>
       </c>
       <c r="E39">
         <v>27.754</v>
       </c>
       <c r="F39">
-        <v>0.155</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>178.73</v>
+        <v>44.683</v>
       </c>
       <c r="E40">
         <v>48.992</v>
       </c>
       <c r="F40">
-        <v>0.274</v>
+        <v>1.096</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>39</v>
       </c>
       <c r="D41">
-        <v>178.73</v>
+        <v>44.683</v>
       </c>
       <c r="E41">
         <v>81.134</v>
       </c>
       <c r="F41">
-        <v>0.454</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>40</v>
       </c>
       <c r="D42">
-        <v>556.16</v>
+        <v>111.232</v>
       </c>
       <c r="E42">
         <v>53.542</v>
       </c>
       <c r="F42">
-        <v>0.096</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>556.16</v>
+        <v>111.232</v>
       </c>
       <c r="E43">
         <v>102.056</v>
       </c>
       <c r="F43">
-        <v>0.184</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>556.16</v>
+        <v>111.232</v>
       </c>
       <c r="E44">
         <v>90.039</v>
       </c>
       <c r="F44">
-        <v>0.162</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,13 +1280,13 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>556.16</v>
+        <v>111.232</v>
       </c>
       <c r="E45">
         <v>196.428</v>
       </c>
       <c r="F45">
-        <v>0.353</v>
+        <v>1.766</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,13 +1300,13 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>556.16</v>
+        <v>111.232</v>
       </c>
       <c r="E46">
         <v>114.095</v>
       </c>
       <c r="F46">
-        <v>0.205</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>508.253</v>
+        <v>127.063</v>
       </c>
       <c r="E47">
         <v>120.632</v>
       </c>
       <c r="F47">
-        <v>0.237</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,13 +1340,13 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>508.253</v>
+        <v>127.063</v>
       </c>
       <c r="E48">
         <v>131.146</v>
       </c>
       <c r="F48">
-        <v>0.258</v>
+        <v>1.032</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>508.253</v>
+        <v>127.063</v>
       </c>
       <c r="E49">
         <v>104.017</v>
       </c>
       <c r="F49">
-        <v>0.205</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>508.253</v>
+        <v>127.063</v>
       </c>
       <c r="E50">
         <v>152.458</v>
       </c>
       <c r="F50">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,13 +1400,13 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>580.699</v>
+        <v>145.175</v>
       </c>
       <c r="E51">
         <v>194.965</v>
       </c>
       <c r="F51">
-        <v>0.336</v>
+        <v>1.343</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,13 +1420,13 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>580.699</v>
+        <v>145.175</v>
       </c>
       <c r="E52">
         <v>158.902</v>
       </c>
       <c r="F52">
-        <v>0.274</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>580.699</v>
+        <v>145.175</v>
       </c>
       <c r="E53">
         <v>110.126</v>
       </c>
       <c r="F53">
-        <v>0.19</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,13 +1460,13 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>580.699</v>
+        <v>145.175</v>
       </c>
       <c r="E54">
         <v>116.707</v>
       </c>
       <c r="F54">
-        <v>0.201</v>
+        <v>0.804</v>
       </c>
     </row>
   </sheetData>
